--- a/classification/droptc/message/modern-bert/freeze/90995999/prediction.xlsx
+++ b/classification/droptc/message/modern-bert/freeze/90995999/prediction.xlsx
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1369,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2854,12 +2854,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/modern-bert/freeze/90995999/prediction.xlsx
+++ b/classification/droptc/message/modern-bert/freeze/90995999/prediction.xlsx
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
